--- a/tables/podsumowanie_opt.xlsx
+++ b/tables/podsumowanie_opt.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dr\latex_text\phd_kali\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7925D583-BC57-47D3-B5A5-237A8C120981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5F3DE-F322-4E9A-B6DC-6A1B1BAE68F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Ściąg</t>
   </si>
@@ -124,12 +134,38 @@
   </si>
   <si>
     <t>Łuk/Wieszaki</t>
+  </si>
+  <si>
+    <t>Maksymalne przyspieszenia</t>
+  </si>
+  <si>
+    <t>Masa konstrukcji [t]
+(połowa obiektu)</t>
+  </si>
+  <si>
+    <t>Prędkość maksymalna</t>
+  </si>
+  <si>
+    <t>[t]</t>
+  </si>
+  <si>
+    <t>$m/s^2$</t>
+  </si>
+  <si>
+    <t>Wieszaki</t>
+  </si>
+  <si>
+    <t>[km/h]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,13 +195,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,4 +769,489 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B805B69-F35C-4009-8254-1B718BD9BB30}">
+  <dimension ref="B2:X19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>160</v>
+      </c>
+      <c r="D4" s="8">
+        <v>116.56875381988399</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.4773618771699</v>
+      </c>
+      <c r="F4" s="10">
+        <v>151</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2385</v>
+      </c>
+      <c r="H4" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>200</v>
+      </c>
+      <c r="D5" s="8">
+        <v>121.40061390276399</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.4990528650385002</v>
+      </c>
+      <c r="F5" s="10">
+        <v>152</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2897</v>
+      </c>
+      <c r="H5" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>300</v>
+      </c>
+      <c r="D6" s="8">
+        <v>132.024814970682</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.4764231912779802</v>
+      </c>
+      <c r="F6" s="10">
+        <v>150</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4183</v>
+      </c>
+      <c r="H6" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>160</v>
+      </c>
+      <c r="D7" s="8">
+        <v>106.07538945885899</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.4254670687989601</v>
+      </c>
+      <c r="F7" s="10">
+        <v>150</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>200</v>
+      </c>
+      <c r="D8" s="8">
+        <v>108.506957282532</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.4631470624388001</v>
+      </c>
+      <c r="F8" s="10">
+        <v>152</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1007</v>
+      </c>
+      <c r="H8" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>300</v>
+      </c>
+      <c r="D9" s="8">
+        <v>152.08739689796701</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.4835032323200399</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1266</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1115</v>
+      </c>
+      <c r="H9" s="10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>160</v>
+      </c>
+      <c r="D10" s="8">
+        <v>106.333682810209</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3.2061020686306501</v>
+      </c>
+      <c r="F10" s="10">
+        <v>150</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1023</v>
+      </c>
+      <c r="H10" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>200</v>
+      </c>
+      <c r="D11" s="8">
+        <v>106.15257438492699</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3.1240865159650699</v>
+      </c>
+      <c r="F11" s="10">
+        <v>150</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1021</v>
+      </c>
+      <c r="H11" s="10">
+        <v>44</v>
+      </c>
+      <c r="S11" s="3">
+        <v>151.18103541139399</v>
+      </c>
+      <c r="T11" s="3">
+        <v>2385.6582412728399</v>
+      </c>
+      <c r="U11" s="3">
+        <v>47.188049106579101</v>
+      </c>
+      <c r="V11" s="4">
+        <f>INT(S11)</f>
+        <v>151</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" ref="W11:X11" si="0">INT(T11)</f>
+        <v>2385</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>300</v>
+      </c>
+      <c r="D12" s="8">
+        <v>150.04538857909699</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3.49999838258119</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1513</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1041</v>
+      </c>
+      <c r="H12" s="10">
+        <v>71</v>
+      </c>
+      <c r="S12" s="3">
+        <v>152.57952226609001</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2897.9855685891698</v>
+      </c>
+      <c r="U12" s="3">
+        <v>54.780164505512403</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" ref="V12:V19" si="1">INT(S12)</f>
+        <v>152</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" ref="W12:W19" si="2">INT(T12)</f>
+        <v>2897</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" ref="X12:X19" si="3">INT(U12)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="S13" s="3">
+        <v>150</v>
+      </c>
+      <c r="T13" s="3">
+        <v>4183.6717748728397</v>
+      </c>
+      <c r="U13" s="3">
+        <v>46.590746147801397</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="2"/>
+        <v>4183</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="S14" s="3">
+        <v>150.49614097002799</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1000.03056340623</v>
+      </c>
+      <c r="U14" s="3">
+        <v>48.0708155093984</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S15" s="3">
+        <v>152.59814342109499</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1007.3357181607</v>
+      </c>
+      <c r="U15" s="3">
+        <v>64.628309094565793</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="2"/>
+        <v>1007</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S16" s="3">
+        <v>1266.2607820670601</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1115.8678890280901</v>
+      </c>
+      <c r="U16" s="3">
+        <v>115.19578529617699</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="1"/>
+        <v>1266</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="2"/>
+        <v>1115</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S17" s="3">
+        <v>150</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1023.90406821257</v>
+      </c>
+      <c r="U17" s="3">
+        <v>46.136997478024902</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="2"/>
+        <v>1023</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S18" s="3">
+        <v>150</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1021.91363687741</v>
+      </c>
+      <c r="U18" s="3">
+        <v>44.8240131019394</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="2"/>
+        <v>1021</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S19" s="3">
+        <v>1513.11326910193</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1041.7115087040099</v>
+      </c>
+      <c r="U19" s="3">
+        <v>71.899197332012207</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="1"/>
+        <v>1513</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="2"/>
+        <v>1041</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>